--- a/exp/freqs/daten.xlsx
+++ b/exp/freqs/daten.xlsx
@@ -547,7 +547,7 @@
   <dimension ref="C10:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
